--- a/Pooled_vs_Unpooled_Connections_Detailed.xlsx
+++ b/Pooled_vs_Unpooled_Connections_Detailed.xlsx
@@ -285,13 +285,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -489,222 +497,222 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="75.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="71.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="38.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>56</v>
       </c>
     </row>
